--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-all-units-vs.xlsx
+++ b/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
